--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from TRE_R307-NCIT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from emdn" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T12:00:00+01:00</t>
+    <t>2023-12-15T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -96,16 +97,10 @@
     <t>Concept</t>
   </si>
   <si>
-    <t>C17610</t>
-  </si>
-  <si>
-    <t>prélèvement de sang</t>
-  </si>
-  <si>
-    <t>C159776</t>
-  </si>
-  <si>
-    <t>système de surveillance continue du glucose</t>
+    <t>Z1204011501</t>
+  </si>
+  <si>
+    <t>SYSTÈMES DE SURVEILLANCE NON INVASIVE DE LA GLYCÉMIE</t>
   </si>
   <si>
     <t/>
@@ -114,7 +109,16 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/TRE_R307-NCIT/FHIR/TRE-R307-NCIT</t>
+    <t>https://webgate.ec.europa.eu/dyna2/emdn</t>
+  </si>
+  <si>
+    <t>82078001</t>
+  </si>
+  <si>
+    <t>prélèvement d'un échantillon sanguin pour le laboratoire</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -377,7 +381,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,23 +412,64 @@
         <v>29</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s" s="2">
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="30.703125" customWidth="true"/>
+    <col min="2" max="2" width="50.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B2" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -31,7 +31,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: urn:oid:1.2.250.1.213.1.1.5.610</t>
+    <t>urn:oid:1.2.250.1.213.1.1.5.610</t>
   </si>
   <si>
     <t>Version</t>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from emdn" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from emdn" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOWMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -76,6 +76,12 @@
     <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -101,9 +107,6 @@
   </si>
   <si>
     <t>SYSTÈMES DE SURVEILLANCE NON INVASIVE DE LA GLYCÉMIE</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -252,7 +255,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -358,20 +361,28 @@
       <c r="A13" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -393,34 +404,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -442,34 +453,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from emdn" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from terminologie-emd" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from terminologie-emd 2" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T12:00:00+01:00</t>
+    <t>2024-07-26T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -112,16 +112,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>https://webgate.ec.europa.eu/dyna2/emdn</t>
+    <t>https://smt.esante.gouv.fr/terminologie-emdn</t>
   </si>
   <si>
     <t>82078001</t>
   </si>
   <si>
     <t>prélèvement d'un échantillon sanguin pour le laboratoire</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -480,7 +477,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -8,13 +8,13 @@
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from terminologie-emd" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from terminologie-emd 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>prélèvement d'un échantillon sanguin pour le laboratoire</t>
+  </si>
+  <si>
+    <t>http://snomed.info/sct</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
         <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from terminologie-emd" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from SNOMED CT" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-26T12:00:00+01:00</t>
+    <t>2024-09-27T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -121,7 +121,7 @@
     <t>prélèvement d'un échantillon sanguin pour le laboratoire</t>
   </si>
   <si>
-    <t>http://snomed.info/sct</t>
+    <t xml:space="preserve">http://snomed.info/sct </t>
   </si>
 </sst>
 </file>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-27T12:00:00+01:00</t>
+    <t>2024-10-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,7 +118,7 @@
     <t>82078001</t>
   </si>
   <si>
-    <t>prélèvement d'un échantillon sanguin pour le laboratoire</t>
+    <t>prélèvement de sang pour le laboratoire</t>
   </si>
   <si>
     <t xml:space="preserve">http://snomed.info/sct </t>

--- a/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
+++ b/ig/main/ValueSet-JDV-J155-MethodGlucoseSanguin-ENS.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
